--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-12.43868872657283</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69840416556123</v>
+        <v>-10.70062985704433</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.112399774847984</v>
+        <v>-3.944242237148854</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.688323451260429</v>
+        <v>-6.869206707321717</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.84343060611858</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05444934134197</v>
+        <v>-11.05983027780992</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.174182351958089</v>
+        <v>-3.972364503652882</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.711496827290285</v>
+        <v>-6.861390602525207</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.15520567502496</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.89053689311744</v>
+        <v>-11.89357430737672</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.916591293547129</v>
+        <v>-3.736100806571093</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.543470212619573</v>
+        <v>-6.69667634047345</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.43306310055618</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73093181252784</v>
+        <v>-12.75197114319449</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.02991826694511</v>
+        <v>-3.807964456869328</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.872767813694667</v>
+        <v>-7.047157287546458</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.689176599434758</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.43074158402378</v>
+        <v>-13.48028285797687</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.780064759513609</v>
+        <v>-3.567890899660597</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.44864266313695</v>
+        <v>-6.598261500012196</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.930333864107585</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.12026080548612</v>
+        <v>-14.17204086322515</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.848314934227528</v>
+        <v>-3.609760084148437</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.622442983360864</v>
+        <v>-6.767780637206865</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.168006857399137</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.72589764264153</v>
+        <v>-14.79960730764045</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.657389881886636</v>
+        <v>-3.443003422853372</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.336939135291344</v>
+        <v>-6.432002346225117</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.39414193628034</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.63467365979426</v>
+        <v>-15.71371189204976</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.502586493086067</v>
+        <v>-3.282360866985393</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.164526599168653</v>
+        <v>-6.188197482706494</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.614244246316225</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.28407806534956</v>
+        <v>-16.36773788050819</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.50063573996265</v>
+        <v>-3.268391379853271</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.720841548165398</v>
+        <v>-5.758573564955253</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.816272479849767</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.79459932235983</v>
+        <v>-16.92420002819007</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.34673572005816</v>
+        <v>-3.126497001654644</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.486044189001883</v>
+        <v>-5.530453280241018</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.009140656960545</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.42461402740652</v>
+        <v>-17.54012741537908</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.449248451308875</v>
+        <v>-3.266427534427012</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.887922333677627</v>
+        <v>-4.937804007504604</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.187599961940786</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.32616309339062</v>
+        <v>-18.42925188596638</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.228904994482626</v>
+        <v>-3.043216863278424</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.244671310457942</v>
+        <v>-4.28705109475661</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.369571360592948</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.07485952369757</v>
+        <v>-19.14224560642393</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.114530636857306</v>
+        <v>-2.923736507544832</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.65461431368419</v>
+        <v>-3.749494232378179</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.559015733626969</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.81742875627459</v>
+        <v>-19.9238953629835</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.044264247505763</v>
+        <v>-2.847447658886095</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.059124011231122</v>
+        <v>-3.15422649907342</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.779517726222631</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.65752255271963</v>
+        <v>-20.80075234580811</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.054319136088208</v>
+        <v>-2.825740620774513</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.419381725173019</v>
+        <v>-2.576973774478876</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.041358182982768</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.36499132137798</v>
+        <v>-21.52181092481617</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.974403719542313</v>
+        <v>-2.747501018992358</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.999878157518433</v>
+        <v>-2.153175931492203</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.3704401072394565</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.26407903442783</v>
+        <v>-22.4354180017175</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.884839275802064</v>
+        <v>-2.648130440423657</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.791186850221319</v>
+        <v>-1.911753867090774</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2191209714035451</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.10600575327071</v>
+        <v>-23.28197939576635</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.889447766402352</v>
+        <v>-2.670609924402901</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.29187260444357</v>
+        <v>-1.463997109903743</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7010810209356486</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.91279273128639</v>
+        <v>-24.07677382437901</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.663592450079736</v>
+        <v>-2.450973451930104</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.072406331907716</v>
+        <v>-1.212022649411883</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.062721054766817</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.3512539534558</v>
+        <v>-24.53446763942292</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.498642526576829</v>
+        <v>-2.293905094737917</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6817320151106102</v>
+        <v>-0.8195939640339857</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.285620660707102</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.01440527699491</v>
+        <v>-25.19552419450735</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.273009779402522</v>
+        <v>-2.096486260187529</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5719923326912623</v>
+        <v>-0.6402425074051803</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.367435534242039</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.58663055729823</v>
+        <v>-25.76205432307452</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.266306520347558</v>
+        <v>-2.0920217849185</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.172258142327682</v>
+        <v>-0.285480377302929</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.304076285618122</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.02644028666034</v>
+        <v>-26.20014896076436</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.198566945444467</v>
+        <v>-2.046892617023071</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2288299829067803</v>
+        <v>-0.3184337035555535</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.107564828022018</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.30068475428597</v>
+        <v>-26.47817710391125</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.846894598812863</v>
+        <v>-1.707710327302473</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2132763271308097</v>
+        <v>-0.2953781582512739</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7883818060364488</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.21460286310162</v>
+        <v>-26.40200608597809</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.733934209894451</v>
+        <v>-1.614336023435283</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3746913288664504</v>
+        <v>-0.4505481315314113</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3694891483338342</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.10952404049393</v>
+        <v>-26.34682202950021</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.801857077037326</v>
+        <v>-1.693989593924345</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3531937676003362</v>
+        <v>-0.3919207994061619</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.1314229488777246</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.29536927933223</v>
+        <v>-26.49331180599629</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.521158104110719</v>
+        <v>-1.41118276024022</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6931354108857536</v>
+        <v>-0.7215980772636661</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.6909239438351966</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.18697810410558</v>
+        <v>-26.43359781273518</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.418553726740112</v>
+        <v>-1.330743651580655</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.773365042699851</v>
+        <v>-0.7892983752582315</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.294584453720501</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.01220895347138</v>
+        <v>-26.2333903176795</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.49787998965813</v>
+        <v>-1.412190867559033</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.920470157429485</v>
+        <v>-0.9251572018468229</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.92532850014571</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.67808029264769</v>
+        <v>-25.89013632177513</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.407765669198529</v>
+        <v>-1.326789776122454</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.411248221754428</v>
+        <v>-1.403733239923278</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.575130515929442</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.68424676728614</v>
+        <v>-25.92212081761746</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.23338928764958</v>
+        <v>-1.163973897982748</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.690480856762762</v>
+        <v>-1.706283266292725</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.232265164207629</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.33555946570245</v>
+        <v>-25.56422962713604</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.197189070292207</v>
+        <v>-1.14085289116426</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.184990227397597</v>
+        <v>-2.213112493901625</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.891470688929584</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.81011298345262</v>
+        <v>-24.99861595976779</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.210373019253825</v>
+        <v>-1.165492605112388</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.296497370700578</v>
+        <v>-2.308319720166657</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.54151199581872</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.38264929567026</v>
+        <v>-24.59047651097982</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.375349127362416</v>
+        <v>-1.332249266407453</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.523675009610209</v>
+        <v>-2.509352030301361</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.176921961434797</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.74205600992745</v>
+        <v>-23.92990437110053</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.375480050390833</v>
+        <v>-1.333767973537094</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.734029039368222</v>
+        <v>-2.675336245728764</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.786997638689551</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.99017815002996</v>
+        <v>-23.16516986981247</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.349099060164755</v>
+        <v>-1.318934394417418</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.844384060021131</v>
+        <v>-2.831069188031095</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.368199781097707</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.61823891859936</v>
+        <v>-22.77161524639018</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.429145399739068</v>
+        <v>-1.393351043769789</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.145651040712089</v>
+        <v>-3.146881717179212</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.913053477653491</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.95545417953982</v>
+        <v>-22.16067602658388</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.348431352719827</v>
+        <v>-1.292383204254397</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.371061218738087</v>
+        <v>-3.379885430853411</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.422519844771952</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.46763497565711</v>
+        <v>-21.67142976169142</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.522388780577841</v>
+        <v>-1.457686619934031</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.602179640803077</v>
+        <v>-3.610100484022321</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.893674685715082</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.06269004876252</v>
+        <v>-21.16284616550173</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.445288209142916</v>
+        <v>-1.357203195623783</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.609262576640451</v>
+        <v>-3.614604236199875</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.33129201446582</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.19745903086137</v>
+        <v>-20.37523941114917</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.176398493379546</v>
+        <v>-1.079161960174047</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.711042138932029</v>
+        <v>-3.735681852880158</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.734512006519941</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.40843830780191</v>
+        <v>-19.52463249552223</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.181687783727604</v>
+        <v>-1.085655742383543</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.853970809055153</v>
+        <v>-3.870323095304469</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.107582158340552</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.97842162096542</v>
+        <v>-19.10093939095829</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.208081866256523</v>
+        <v>-1.101196305856672</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.075034342537697</v>
+        <v>-4.103824316486653</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.448227659286831</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.5081722874963</v>
+        <v>-18.5940839787437</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.194832455780696</v>
+        <v>-1.09374678553973</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.196190513035031</v>
+        <v>-4.211115738274598</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.758287245188209</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.07421481750445</v>
+        <v>-18.1185977241379</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.160242591672856</v>
+        <v>-1.05741564515394</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.351190286378226</v>
+        <v>-4.329155940695601</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.03413767171515</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.29930759690836</v>
+        <v>-17.3687884480894</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.258369401471593</v>
+        <v>-1.142201398356958</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.642978439811775</v>
+        <v>-4.649210375964437</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.27669398568141</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.44418383680103</v>
+        <v>-16.53060612785926</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.182617337229366</v>
+        <v>-1.071961193611097</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.609239575388647</v>
+        <v>-4.585516322639439</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.48418059343735</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.84508005876364</v>
+        <v>-15.86852837315317</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.146534950597569</v>
+        <v>-0.9986573900002731</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.826152848870364</v>
+        <v>-4.82786794054263</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.65935622426845</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.94029719397764</v>
+        <v>-15.00629549260278</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.09526549266937</v>
+        <v>-0.9662932173755263</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.957468646372877</v>
+        <v>-4.946575850408561</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.80284015065172</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.15445790050871</v>
+        <v>-14.20554406619713</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.095566615634729</v>
+        <v>-0.9699459698683679</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.135314488174884</v>
+        <v>-5.134162365524811</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.91695406503267</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.40673030061205</v>
+        <v>-13.52076425836349</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.045252895813976</v>
+        <v>-0.9106378379953488</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.028468204683556</v>
+        <v>-5.040709507840571</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.00274166679231</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.71544361826608</v>
+        <v>-12.81316456667672</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.049900663322789</v>
+        <v>-0.8985274578667521</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.111578143122834</v>
+        <v>-5.122025800790531</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.06175011652929</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.35717275100224</v>
+        <v>-12.44038742786425</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.246403036674256</v>
+        <v>-1.096469984530809</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.280180819118582</v>
+        <v>-5.291610399499409</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.09591117395065</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.69294785863011</v>
+        <v>-11.74750348457158</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.33988207896418</v>
+        <v>-1.183730182970913</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.764412732022663</v>
+        <v>-5.766154008300612</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.10579060085942</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.26977844617984</v>
+        <v>-11.32479230272078</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.356051072973711</v>
+        <v>-1.192763871931704</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.900022804857262</v>
+        <v>-5.901214204415858</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.09356419660475</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.50027834665739</v>
+        <v>-10.5455253452784</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.347122122435654</v>
+        <v>-1.181347383853719</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.349245899962566</v>
+        <v>-6.36278334110091</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.05869502746094</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.00528456081741</v>
+        <v>-10.09446932777525</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.555198091499207</v>
+        <v>-1.372206974680401</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.180329008698616</v>
+        <v>-6.217694441008903</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.00513071637628</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.455132903105241</v>
+        <v>-9.509714713652397</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.541438081212553</v>
+        <v>-1.365346607991337</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.403015987733535</v>
+        <v>-6.446194402505547</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.93367904502916</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.157165182730397</v>
+        <v>-9.228400402492229</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.614571684886434</v>
+        <v>-1.450145453497196</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.277002572881922</v>
+        <v>-6.337187889045336</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.85039970470619</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.503322486511756</v>
+        <v>-8.614855814420421</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.71056444932197</v>
+        <v>-1.521145011807877</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.712177627038055</v>
+        <v>-6.72519137606273</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.75481585149512</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.927365899898543</v>
+        <v>-8.045746502193429</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.616312961164384</v>
+        <v>-1.446623624032772</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.568371772624535</v>
+        <v>-6.598575715280397</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.65266055716171</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.469986300122843</v>
+        <v>-7.579529597999564</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.622243774351686</v>
+        <v>-1.423070571220507</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.627627535286187</v>
+        <v>-6.669928765767804</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.54140584591467</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.03041223221189</v>
+        <v>-7.18181162227361</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.759136892864773</v>
+        <v>-1.569350870871112</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.810553190590785</v>
+        <v>-6.839932318167618</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.42655253149622</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.60390428253698</v>
+        <v>-6.750119120673377</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.639185214228879</v>
+        <v>-1.459323157789246</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.012423408107359</v>
+        <v>-6.996647183183079</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.30406811440442</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.371515907096343</v>
+        <v>-6.501548658920366</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.79316378795042</v>
+        <v>-1.621183297821506</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.037455891140739</v>
+        <v>-7.037547537260631</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.17904330449106</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.223585977287679</v>
+        <v>-6.3768051974444</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.781930592112219</v>
+        <v>-1.612620931763017</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.082807628184478</v>
+        <v>-7.101241590585628</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.04552089337817</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.947888264046612</v>
+        <v>-6.104760236696174</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.693230240359525</v>
+        <v>-1.560984889355249</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.054423515623616</v>
+        <v>-7.048636717767573</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.908125641658687</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.845336255887371</v>
+        <v>-6.015562377435494</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.98317237909239</v>
+        <v>-1.834679480261533</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.097719761121204</v>
+        <v>-7.076706615060234</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.760614882611153</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.730778606022269</v>
+        <v>-5.925474241581576</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.926142307913831</v>
+        <v>-1.787311528580168</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.83366110510643</v>
+        <v>-6.820647356081755</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.609937848965302</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.462150736315733</v>
+        <v>-5.671234812698098</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.935359289114406</v>
+        <v>-1.804449352999987</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.748063629127226</v>
+        <v>-6.719522408932263</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.450547346397494</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.534171494248068</v>
+        <v>-5.77599942003759</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.01290499884595</v>
+        <v>-1.887650937559157</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.575376154644859</v>
+        <v>-6.525350465486624</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.289299334066179</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.606087513757669</v>
+        <v>-5.847077532165321</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.101723181324219</v>
+        <v>-1.974125597828757</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.406145048112708</v>
+        <v>-6.36246912583271</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.118702243690501</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.816179697458847</v>
+        <v>-6.04268962892355</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.961308233346708</v>
+        <v>-1.833710649851245</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.326543846835013</v>
+        <v>-6.242072308900196</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.943419159520316</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.955782922660172</v>
+        <v>-6.204680691984227</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.204851250808496</v>
+        <v>-2.107863471356989</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.178928132294551</v>
+        <v>-6.103333175686426</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.753029354343496</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.433455591840548</v>
+        <v>-6.682130792016293</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.200517698567884</v>
+        <v>-2.079204420436451</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.954931922975461</v>
+        <v>-5.859646142893378</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.548975246783218</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.91777915086452</v>
+        <v>-7.131262241001706</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.247649988798099</v>
+        <v>-2.133956430920549</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.000453859956142</v>
+        <v>-5.919779089845426</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.31753190002668</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.400138864462234</v>
+        <v>-7.618675583496326</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.20609501957846</v>
+        <v>-2.079099682013717</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.633686088148028</v>
+        <v>-5.547905319929039</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.058321395324748</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.806471575458044</v>
+        <v>-8.009009500419547</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.220169245133315</v>
+        <v>-2.126231972243931</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.471040409945265</v>
+        <v>-5.387066379518434</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.758303334845353</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.17385468549972</v>
+        <v>-8.393949388571977</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.493353236228772</v>
+        <v>-2.387659075387517</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.072955849739742</v>
+        <v>-4.993969986695609</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.418905722026868</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.095971759248171</v>
+        <v>-9.286163642629925</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.420638586245825</v>
+        <v>-2.310689426981009</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.080130431697008</v>
+        <v>-4.979869576535069</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.03076558433238</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.847954357568391</v>
+        <v>-10.01104517406777</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.512049044686756</v>
+        <v>-2.399952747755898</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.910519648382447</v>
+        <v>-4.81095268527112</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.599709017143475</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.61085593645861</v>
+        <v>-10.75831454336497</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.548471831192438</v>
+        <v>-2.484947977804383</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.586995752860554</v>
+        <v>-4.483082145205774</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.121868249042924</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.74341868608496</v>
+        <v>-11.90188791968122</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.641361719854485</v>
+        <v>-2.558304150626574</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.48805722028563</v>
+        <v>-4.37450767773934</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.60894809501069</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.56158287527011</v>
+        <v>-12.71213126564712</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.784355851491817</v>
+        <v>-2.700093790402468</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.129563783873487</v>
+        <v>-4.004388276403744</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.064488374442315</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.58468088083679</v>
+        <v>-13.74974863506528</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.879353600911381</v>
+        <v>-2.797919477235845</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.793209431566702</v>
+        <v>-3.700332635207498</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.507937578783455</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.58446149504236</v>
+        <v>-14.74422686661995</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.907672251958035</v>
+        <v>-2.834420817558577</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.3556908552019</v>
+        <v>-3.243777850510826</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.949180553168517</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.9692867358231</v>
+        <v>-16.09337558215698</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.832064203047067</v>
+        <v>-2.731659332553869</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.103061779567954</v>
+        <v>-2.99326972793724</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.411319440085304</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.37957650563099</v>
+        <v>-17.52649832812084</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.051190075709036</v>
+        <v>-2.97985011752447</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.822323529732822</v>
+        <v>-2.733439885740344</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.905352625796331</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.85325920579852</v>
+        <v>-18.99113424702473</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.255966784456473</v>
+        <v>-3.17326270740529</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.688258348633547</v>
+        <v>-2.614116637640853</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.453005572936733</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.49820231943866</v>
+        <v>-20.6051140644442</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.477226702481644</v>
+        <v>-3.372998879558662</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.733400608831819</v>
+        <v>-2.68577081109362</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.061844808561875</v>
       </c>
       <c r="E92" t="n">
-        <v>-21.96938438976342</v>
+        <v>-22.08625937723151</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.464396245696752</v>
+        <v>-3.405651082845927</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.638127921052578</v>
+        <v>-2.568018639335135</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.747887852289711</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.96037015981323</v>
+        <v>-24.07704876273869</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.713529676471957</v>
+        <v>-3.592949567299661</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.601718226849738</v>
+        <v>-2.543614586838158</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.511076665179475</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.13756775318091</v>
+        <v>-26.23788097755421</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.512628289365671</v>
+        <v>-3.401775761204776</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.768016657545342</v>
+        <v>-2.690863716899051</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.356613207618427</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.30727654932312</v>
+        <v>-28.41520949395031</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.026488083600578</v>
+        <v>-3.896232762628245</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.969677398216449</v>
+        <v>-2.926210952781919</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.273163083810481</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.33380792158821</v>
+        <v>-30.47231139335083</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.007831552051118</v>
+        <v>-3.877091815873641</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.302732490207119</v>
+        <v>-3.262277274426185</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.252766441474098</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.590737639262</v>
+        <v>-32.74688953525527</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.147578792583702</v>
+        <v>-4.041452585748671</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.386876720570892</v>
+        <v>-3.340804906870858</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.272509497003132</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.10495729238139</v>
+        <v>-35.23855115057837</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.439092007657575</v>
+        <v>-4.307645287126645</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.799965059833033</v>
+        <v>-3.775142053645121</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.312592501440287</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.51024898585762</v>
+        <v>-37.63508409345348</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.280976266238048</v>
+        <v>-4.176211658898557</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.207057124393663</v>
+        <v>-4.151794514098738</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.344039489977255</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.13792653540341</v>
+        <v>-40.2526674775083</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.405196035600346</v>
+        <v>-4.294042384474092</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.457525970058724</v>
+        <v>-4.401150514022253</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.34598168396747</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.58398765992877</v>
+        <v>-42.6880714675205</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.561845439101599</v>
+        <v>-4.448727942549085</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.976203731739386</v>
+        <v>-4.898644929705001</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.294854747828633</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.94462150841188</v>
+        <v>-45.06027891171568</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.645099392872134</v>
+        <v>-4.540020570264441</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.162297724331681</v>
+        <v>-5.12087367814046</v>
       </c>
     </row>
   </sheetData>
